--- a/catalog.missing.xlsx
+++ b/catalog.missing.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="241">
   <si>
     <t>index</t>
   </si>
   <si>
     <t>table</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>214</t>
@@ -1091,2614 +1094,5649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C237"/>
+  <dimension ref="A1:D403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>239</v>
+      </c>
+      <c r="D2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>239</v>
+      </c>
+      <c r="D3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>239</v>
+      </c>
+      <c r="D4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>239</v>
+      </c>
+      <c r="D5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5701</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D6">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5702</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D7">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>5705</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D8">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>5706</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D9">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>5708</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D10">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>5711</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D11">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>5713</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D12">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>5714</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D13">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>5715</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D14">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>5716</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D15">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>5717</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D16">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>5718</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D17">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>5719</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D18">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>5720</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D19">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>5721</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D20">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>5722</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D21">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>5723</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D22">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>5724</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D23">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>5729</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D24">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>5731</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D25">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>5732</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D26">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>5733</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D27">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>5734</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D28">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>5737</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D29">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>5738</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D30">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>5739</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D31">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>5740</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D32">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>5741</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D33">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>5748</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D34">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>5750</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>5752</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D36">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>5758</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D37">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>5761</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D38">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>5766</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D39">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>5767</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D40">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>5768</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D41">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>5770</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D42">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>5771</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D43">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>5844</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D44">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>5984</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D45">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>5989</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D46">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>5990</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D47">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>5991</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D48">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>9062</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D49">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>9063</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D50">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>9064</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D51">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>9065</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D52">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>9066</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D53">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>9068</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D54">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>9069</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D55">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>9070</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D56">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>9072</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D57">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>9073</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D58">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>9074</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D59">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>9075</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D60">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>9076</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D61">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>9077</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D62">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>9078</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D63">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>9079</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D64">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>9081</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D65">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>9082</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D66">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>9083</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D67">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>9088</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D68">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>9091</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D69">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>9092</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D70">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>9093</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D71">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>9094</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D72">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>9095</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D73">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>9096</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D74">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>9097</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D75">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>9100</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D76">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>9101</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D77">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>9103</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D78">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>9104</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D79">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>9105</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D80">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>9411</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D81">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>9412</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D82">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>9413</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D83">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>9414</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D84">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>9415</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D85">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>9416</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D86">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>9417</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D87">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>9418</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D88">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>9419</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D89">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>9420</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D90">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>9421</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D91">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>9422</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D92">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>9423</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D93">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>9424</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D94">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>9425</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D95">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>9426</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D96">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>9427</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D97">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>9428</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D98">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>9429</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D99">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>9430</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D100">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>9431</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D101">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>9432</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D102">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>9433</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D103">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>9434</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D104">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>9435</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D105">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>9436</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D106">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>9437</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D107">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>9438</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D108">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>9439</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D109">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>9440</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D110">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>9441</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D111">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>9442</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D112">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>9443</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D113">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>9444</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D114">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>9445</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D115">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>9446</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D116">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>9447</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D117">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>9448</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D118">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>9449</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D119">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>9450</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D120">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>9451</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D121">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>9452</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D122">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>9453</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D123">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>9454</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D124">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>9455</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D125">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>9456</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D126">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>9457</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D127">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>9458</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D128">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>9459</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D129">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>9460</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D130">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>9461</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D131">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>9462</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D132">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>9463</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D133">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>9464</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D134">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>9465</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D135">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>9466</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D136">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>9467</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D137">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>9468</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D138">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>9469</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D139">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>9470</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D140">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>9471</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D141">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>9472</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D142">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>9473</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D143">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>9474</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D144">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>9475</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D145">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>9476</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D146">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>9477</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D147">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>9478</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D148">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>9479</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D149">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>9480</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D150">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>9481</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D151">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>9482</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D152">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>9483</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D153">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>9484</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D154">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>9485</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D155">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>9486</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D156">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>9487</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D157">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>9488</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D158">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>9489</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D159">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="1">
         <v>9490</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D160">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="1">
         <v>9491</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D161">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>9492</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D162">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="1">
         <v>9493</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D163">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="1">
         <v>9494</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D164">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="1">
         <v>9495</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D165">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="1">
         <v>9496</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D166">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="1">
         <v>9497</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D167">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="1">
         <v>9498</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D168">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="1">
         <v>9499</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D169">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="1">
         <v>9500</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D170">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="1">
         <v>9501</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D171">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="1">
         <v>9502</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D172">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="1">
         <v>9503</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D173">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="1">
         <v>9505</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D174">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="1">
         <v>9506</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D175">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="1">
         <v>9507</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D176">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>9508</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D177">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="1">
         <v>9509</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D178">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="1">
         <v>9510</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D179">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="1">
         <v>9511</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D180">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="1">
         <v>9512</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D181">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="1">
         <v>9513</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D182">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="1">
         <v>9514</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D183">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="1">
         <v>9517</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D184">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="1">
         <v>9520</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D185">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="1">
         <v>9521</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D186">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="1">
         <v>9522</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D187">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="1">
         <v>9525</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D188">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="1">
         <v>9539</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D189">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="1">
         <v>9592</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D190">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="1">
         <v>9635</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D191">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="1">
         <v>9671</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D192">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="1">
         <v>9680</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D193">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="1">
         <v>9758</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D194">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="1">
         <v>9759</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D195">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="1">
         <v>9760</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D196">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="1">
         <v>9761</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D197">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="1">
         <v>9762</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D198">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" s="1">
         <v>9763</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D199">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="1">
         <v>9797</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D200">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="1">
-        <v>21276</v>
+        <v>9817</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
+        <v>3</v>
       </c>
       <c r="C201" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="1">
-        <v>21277</v>
+        <v>9818</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="C202" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="1">
-        <v>21278</v>
+        <v>9819</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="1">
-        <v>21279</v>
+        <v>9820</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="1">
+        <v>21276</v>
+      </c>
+      <c r="B205" t="s">
+        <v>202</v>
+      </c>
+      <c r="C205" t="s">
+        <v>240</v>
+      </c>
+      <c r="D205">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>21277</v>
+      </c>
+      <c r="B206" t="s">
+        <v>203</v>
+      </c>
+      <c r="C206" t="s">
+        <v>240</v>
+      </c>
+      <c r="D206">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>21278</v>
+      </c>
+      <c r="B207" t="s">
+        <v>204</v>
+      </c>
+      <c r="C207" t="s">
+        <v>240</v>
+      </c>
+      <c r="D207">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>21279</v>
+      </c>
+      <c r="B208" t="s">
+        <v>205</v>
+      </c>
+      <c r="C208" t="s">
+        <v>240</v>
+      </c>
+      <c r="D208">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>21280</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B209" t="s">
+        <v>206</v>
+      </c>
+      <c r="C209" t="s">
+        <v>240</v>
+      </c>
+      <c r="D209">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>21281</v>
+      </c>
+      <c r="B210" t="s">
+        <v>207</v>
+      </c>
+      <c r="C210" t="s">
+        <v>240</v>
+      </c>
+      <c r="D210">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>21282</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>240</v>
+      </c>
+      <c r="D211">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>21284</v>
+      </c>
+      <c r="B212" t="s">
+        <v>208</v>
+      </c>
+      <c r="C212" t="s">
+        <v>240</v>
+      </c>
+      <c r="D212">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>21293</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>240</v>
+      </c>
+      <c r="D213">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>21294</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" t="s">
+        <v>240</v>
+      </c>
+      <c r="D214">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>21302</v>
+      </c>
+      <c r="B215" t="s">
+        <v>209</v>
+      </c>
+      <c r="C215" t="s">
+        <v>240</v>
+      </c>
+      <c r="D215">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>21304</v>
+      </c>
+      <c r="B216" t="s">
+        <v>210</v>
+      </c>
+      <c r="C216" t="s">
+        <v>240</v>
+      </c>
+      <c r="D216">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>21305</v>
+      </c>
+      <c r="B217" t="s">
+        <v>211</v>
+      </c>
+      <c r="C217" t="s">
+        <v>240</v>
+      </c>
+      <c r="D217">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>21306</v>
+      </c>
+      <c r="B218" t="s">
+        <v>212</v>
+      </c>
+      <c r="C218" t="s">
+        <v>240</v>
+      </c>
+      <c r="D218">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>21307</v>
+      </c>
+      <c r="B219" t="s">
+        <v>213</v>
+      </c>
+      <c r="C219" t="s">
+        <v>240</v>
+      </c>
+      <c r="D219">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>21308</v>
+      </c>
+      <c r="B220" t="s">
+        <v>214</v>
+      </c>
+      <c r="C220" t="s">
+        <v>240</v>
+      </c>
+      <c r="D220">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>21309</v>
+      </c>
+      <c r="B221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C221" t="s">
+        <v>240</v>
+      </c>
+      <c r="D221">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>21310</v>
+      </c>
+      <c r="B222" t="s">
+        <v>216</v>
+      </c>
+      <c r="C222" t="s">
+        <v>240</v>
+      </c>
+      <c r="D222">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>21311</v>
+      </c>
+      <c r="B223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C223" t="s">
+        <v>240</v>
+      </c>
+      <c r="D223">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>21312</v>
+      </c>
+      <c r="B224" t="s">
+        <v>218</v>
+      </c>
+      <c r="C224" t="s">
+        <v>240</v>
+      </c>
+      <c r="D224">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>21313</v>
+      </c>
+      <c r="B225" t="s">
+        <v>219</v>
+      </c>
+      <c r="C225" t="s">
+        <v>240</v>
+      </c>
+      <c r="D225">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>21314</v>
+      </c>
+      <c r="B226" t="s">
+        <v>220</v>
+      </c>
+      <c r="C226" t="s">
+        <v>240</v>
+      </c>
+      <c r="D226">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>21315</v>
+      </c>
+      <c r="B227" t="s">
+        <v>221</v>
+      </c>
+      <c r="C227" t="s">
+        <v>240</v>
+      </c>
+      <c r="D227">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>21316</v>
+      </c>
+      <c r="B228" t="s">
+        <v>222</v>
+      </c>
+      <c r="C228" t="s">
+        <v>240</v>
+      </c>
+      <c r="D228">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>21317</v>
+      </c>
+      <c r="B229" t="s">
+        <v>223</v>
+      </c>
+      <c r="C229" t="s">
+        <v>240</v>
+      </c>
+      <c r="D229">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>21318</v>
+      </c>
+      <c r="B230" t="s">
+        <v>224</v>
+      </c>
+      <c r="C230" t="s">
+        <v>240</v>
+      </c>
+      <c r="D230">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>21319</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" t="s">
+        <v>240</v>
+      </c>
+      <c r="D231">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>21320</v>
+      </c>
+      <c r="B232" t="s">
+        <v>225</v>
+      </c>
+      <c r="C232" t="s">
+        <v>240</v>
+      </c>
+      <c r="D232">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>21321</v>
+      </c>
+      <c r="B233" t="s">
+        <v>226</v>
+      </c>
+      <c r="C233" t="s">
+        <v>240</v>
+      </c>
+      <c r="D233">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>21322</v>
+      </c>
+      <c r="B234" t="s">
+        <v>227</v>
+      </c>
+      <c r="C234" t="s">
+        <v>240</v>
+      </c>
+      <c r="D234">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>21323</v>
+      </c>
+      <c r="B235" t="s">
+        <v>228</v>
+      </c>
+      <c r="C235" t="s">
+        <v>240</v>
+      </c>
+      <c r="D235">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>21324</v>
+      </c>
+      <c r="B236" t="s">
+        <v>229</v>
+      </c>
+      <c r="C236" t="s">
+        <v>240</v>
+      </c>
+      <c r="D236">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>21325</v>
+      </c>
+      <c r="B237" t="s">
+        <v>230</v>
+      </c>
+      <c r="C237" t="s">
+        <v>240</v>
+      </c>
+      <c r="D237">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>21326</v>
+      </c>
+      <c r="B238" t="s">
+        <v>231</v>
+      </c>
+      <c r="C238" t="s">
+        <v>240</v>
+      </c>
+      <c r="D238">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>21328</v>
+      </c>
+      <c r="B239" t="s">
+        <v>232</v>
+      </c>
+      <c r="C239" t="s">
+        <v>240</v>
+      </c>
+      <c r="D239">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>21329</v>
+      </c>
+      <c r="B240" t="s">
+        <v>233</v>
+      </c>
+      <c r="C240" t="s">
+        <v>240</v>
+      </c>
+      <c r="D240">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>21373</v>
+      </c>
+      <c r="B241" t="s">
+        <v>77</v>
+      </c>
+      <c r="C241" t="s">
+        <v>240</v>
+      </c>
+      <c r="D241">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
+        <v>21374</v>
+      </c>
+      <c r="B242" t="s">
+        <v>78</v>
+      </c>
+      <c r="C242" t="s">
+        <v>240</v>
+      </c>
+      <c r="D242">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>21375</v>
+      </c>
+      <c r="B243" t="s">
+        <v>79</v>
+      </c>
+      <c r="C243" t="s">
+        <v>240</v>
+      </c>
+      <c r="D243">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
+        <v>21376</v>
+      </c>
+      <c r="B244" t="s">
+        <v>234</v>
+      </c>
+      <c r="C244" t="s">
+        <v>240</v>
+      </c>
+      <c r="D244">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
+        <v>21377</v>
+      </c>
+      <c r="B245" t="s">
+        <v>81</v>
+      </c>
+      <c r="C245" t="s">
+        <v>240</v>
+      </c>
+      <c r="D245">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
+        <v>21381</v>
+      </c>
+      <c r="B246" t="s">
+        <v>80</v>
+      </c>
+      <c r="C246" t="s">
+        <v>240</v>
+      </c>
+      <c r="D246">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
+        <v>21839</v>
+      </c>
+      <c r="B247" t="s">
+        <v>184</v>
+      </c>
+      <c r="C247" t="s">
+        <v>240</v>
+      </c>
+      <c r="D247">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
+        <v>21840</v>
+      </c>
+      <c r="B248" t="s">
+        <v>175</v>
+      </c>
+      <c r="C248" t="s">
+        <v>240</v>
+      </c>
+      <c r="D248">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
+        <v>21841</v>
+      </c>
+      <c r="B249" t="s">
+        <v>176</v>
+      </c>
+      <c r="C249" t="s">
+        <v>240</v>
+      </c>
+      <c r="D249">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
+        <v>21842</v>
+      </c>
+      <c r="B250" t="s">
+        <v>177</v>
+      </c>
+      <c r="C250" t="s">
+        <v>240</v>
+      </c>
+      <c r="D250">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
+        <v>21843</v>
+      </c>
+      <c r="B251" t="s">
+        <v>179</v>
+      </c>
+      <c r="C251" t="s">
+        <v>240</v>
+      </c>
+      <c r="D251">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
+        <v>21844</v>
+      </c>
+      <c r="B252" t="s">
+        <v>180</v>
+      </c>
+      <c r="C252" t="s">
+        <v>240</v>
+      </c>
+      <c r="D252">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
+        <v>21845</v>
+      </c>
+      <c r="B253" t="s">
+        <v>188</v>
+      </c>
+      <c r="C253" t="s">
+        <v>240</v>
+      </c>
+      <c r="D253">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
+        <v>21846</v>
+      </c>
+      <c r="B254" t="s">
+        <v>181</v>
+      </c>
+      <c r="C254" t="s">
+        <v>240</v>
+      </c>
+      <c r="D254">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
+        <v>21847</v>
+      </c>
+      <c r="B255" t="s">
+        <v>182</v>
+      </c>
+      <c r="C255" t="s">
+        <v>240</v>
+      </c>
+      <c r="D255">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
+        <v>21848</v>
+      </c>
+      <c r="B256" t="s">
+        <v>183</v>
+      </c>
+      <c r="C256" t="s">
+        <v>240</v>
+      </c>
+      <c r="D256">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
+        <v>21849</v>
+      </c>
+      <c r="B257" t="s">
+        <v>189</v>
+      </c>
+      <c r="C257" t="s">
+        <v>240</v>
+      </c>
+      <c r="D257">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
+        <v>21850</v>
+      </c>
+      <c r="B258" t="s">
+        <v>187</v>
+      </c>
+      <c r="C258" t="s">
+        <v>240</v>
+      </c>
+      <c r="D258">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>21856</v>
+      </c>
+      <c r="B259" t="s">
+        <v>185</v>
+      </c>
+      <c r="C259" t="s">
+        <v>240</v>
+      </c>
+      <c r="D259">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
+        <v>21857</v>
+      </c>
+      <c r="B260" t="s">
+        <v>186</v>
+      </c>
+      <c r="C260" t="s">
+        <v>240</v>
+      </c>
+      <c r="D260">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>21866</v>
+      </c>
+      <c r="B261" t="s">
+        <v>191</v>
+      </c>
+      <c r="C261" t="s">
+        <v>240</v>
+      </c>
+      <c r="D261">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>21876</v>
+      </c>
+      <c r="B262" t="s">
+        <v>190</v>
+      </c>
+      <c r="C262" t="s">
+        <v>240</v>
+      </c>
+      <c r="D262">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>21889</v>
+      </c>
+      <c r="B263" t="s">
+        <v>178</v>
+      </c>
+      <c r="C263" t="s">
+        <v>240</v>
+      </c>
+      <c r="D263">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>21901</v>
+      </c>
+      <c r="B264" t="s">
+        <v>195</v>
+      </c>
+      <c r="C264" t="s">
+        <v>240</v>
+      </c>
+      <c r="D264">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>21902</v>
+      </c>
+      <c r="B265" t="s">
+        <v>201</v>
+      </c>
+      <c r="C265" t="s">
+        <v>240</v>
+      </c>
+      <c r="D265">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>21903</v>
+      </c>
+      <c r="B266" t="s">
+        <v>198</v>
+      </c>
+      <c r="C266" t="s">
+        <v>240</v>
+      </c>
+      <c r="D266">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>22056</v>
+      </c>
+      <c r="B267" t="s">
+        <v>192</v>
+      </c>
+      <c r="C267" t="s">
+        <v>240</v>
+      </c>
+      <c r="D267">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>22081</v>
+      </c>
+      <c r="B268" t="s">
+        <v>194</v>
+      </c>
+      <c r="C268" t="s">
+        <v>240</v>
+      </c>
+      <c r="D268">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>22179</v>
+      </c>
+      <c r="B269" t="s">
+        <v>196</v>
+      </c>
+      <c r="C269" t="s">
+        <v>240</v>
+      </c>
+      <c r="D269">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>22180</v>
+      </c>
+      <c r="B270" t="s">
+        <v>197</v>
+      </c>
+      <c r="C270" t="s">
+        <v>240</v>
+      </c>
+      <c r="D270">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>22182</v>
+      </c>
+      <c r="B271" t="s">
+        <v>235</v>
+      </c>
+      <c r="C271" t="s">
+        <v>240</v>
+      </c>
+      <c r="D271">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>22183</v>
+      </c>
+      <c r="B272" t="s">
+        <v>200</v>
+      </c>
+      <c r="C272" t="s">
+        <v>240</v>
+      </c>
+      <c r="D272">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>22796</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" t="s">
+        <v>239</v>
+      </c>
+      <c r="D273">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>22797</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>239</v>
+      </c>
+      <c r="D274">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>22800</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>239</v>
+      </c>
+      <c r="D275">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>22802</v>
+      </c>
+      <c r="B276" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>239</v>
+      </c>
+      <c r="D276">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
+        <v>31964</v>
+      </c>
+      <c r="B277" t="s">
+        <v>202</v>
+      </c>
+      <c r="C277" t="s">
+        <v>240</v>
+      </c>
+      <c r="D277">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>31965</v>
+      </c>
+      <c r="B278" t="s">
+        <v>203</v>
+      </c>
+      <c r="C278" t="s">
+        <v>240</v>
+      </c>
+      <c r="D278">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>31966</v>
+      </c>
+      <c r="B279" t="s">
+        <v>204</v>
+      </c>
+      <c r="C279" t="s">
+        <v>240</v>
+      </c>
+      <c r="D279">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>31967</v>
+      </c>
+      <c r="B280" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" t="s">
+        <v>240</v>
+      </c>
+      <c r="D280">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>31968</v>
+      </c>
+      <c r="B281" t="s">
         <v>205</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C281" t="s">
+        <v>240</v>
+      </c>
+      <c r="D281">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>31969</v>
+      </c>
+      <c r="B282" t="s">
+        <v>206</v>
+      </c>
+      <c r="C282" t="s">
+        <v>240</v>
+      </c>
+      <c r="D282">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>31971</v>
+      </c>
+      <c r="B283" t="s">
+        <v>211</v>
+      </c>
+      <c r="C283" t="s">
+        <v>240</v>
+      </c>
+      <c r="D283">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
+        <v>32003</v>
+      </c>
+      <c r="B284" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" t="s">
+        <v>240</v>
+      </c>
+      <c r="D284">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
+        <v>32004</v>
+      </c>
+      <c r="B285" t="s">
+        <v>10</v>
+      </c>
+      <c r="C285" t="s">
+        <v>240</v>
+      </c>
+      <c r="D285">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>32010</v>
+      </c>
+      <c r="B286" t="s">
+        <v>236</v>
+      </c>
+      <c r="C286" t="s">
+        <v>240</v>
+      </c>
+      <c r="D286">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>32011</v>
+      </c>
+      <c r="B287" t="s">
+        <v>77</v>
+      </c>
+      <c r="C287" t="s">
+        <v>240</v>
+      </c>
+      <c r="D287">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
+        <v>32014</v>
+      </c>
+      <c r="B288" t="s">
+        <v>78</v>
+      </c>
+      <c r="C288" t="s">
+        <v>240</v>
+      </c>
+      <c r="D288">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
+        <v>32016</v>
+      </c>
+      <c r="B289" t="s">
+        <v>79</v>
+      </c>
+      <c r="C289" t="s">
+        <v>240</v>
+      </c>
+      <c r="D289">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
+        <v>32084</v>
+      </c>
+      <c r="B290" t="s">
+        <v>175</v>
+      </c>
+      <c r="C290" t="s">
+        <v>240</v>
+      </c>
+      <c r="D290">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>32085</v>
+      </c>
+      <c r="B291" t="s">
+        <v>176</v>
+      </c>
+      <c r="C291" t="s">
+        <v>240</v>
+      </c>
+      <c r="D291">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
+        <v>32086</v>
+      </c>
+      <c r="B292" t="s">
+        <v>177</v>
+      </c>
+      <c r="C292" t="s">
+        <v>240</v>
+      </c>
+      <c r="D292">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
+        <v>32087</v>
+      </c>
+      <c r="B293" t="s">
+        <v>179</v>
+      </c>
+      <c r="C293" t="s">
+        <v>240</v>
+      </c>
+      <c r="D293">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>32088</v>
+      </c>
+      <c r="B294" t="s">
+        <v>180</v>
+      </c>
+      <c r="C294" t="s">
+        <v>240</v>
+      </c>
+      <c r="D294">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>32089</v>
+      </c>
+      <c r="B295" t="s">
+        <v>188</v>
+      </c>
+      <c r="C295" t="s">
+        <v>240</v>
+      </c>
+      <c r="D295">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>32090</v>
+      </c>
+      <c r="B296" t="s">
+        <v>181</v>
+      </c>
+      <c r="C296" t="s">
+        <v>240</v>
+      </c>
+      <c r="D296">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>32091</v>
+      </c>
+      <c r="B297" t="s">
+        <v>182</v>
+      </c>
+      <c r="C297" t="s">
+        <v>240</v>
+      </c>
+      <c r="D297">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>32092</v>
+      </c>
+      <c r="B298" t="s">
+        <v>183</v>
+      </c>
+      <c r="C298" t="s">
+        <v>240</v>
+      </c>
+      <c r="D298">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>32093</v>
+      </c>
+      <c r="B299" t="s">
+        <v>189</v>
+      </c>
+      <c r="C299" t="s">
+        <v>240</v>
+      </c>
+      <c r="D299">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
+        <v>32094</v>
+      </c>
+      <c r="B300" t="s">
+        <v>184</v>
+      </c>
+      <c r="C300" t="s">
+        <v>240</v>
+      </c>
+      <c r="D300">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
+        <v>32098</v>
+      </c>
+      <c r="B301" t="s">
+        <v>178</v>
+      </c>
+      <c r="C301" t="s">
+        <v>240</v>
+      </c>
+      <c r="D301">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
+        <v>32099</v>
+      </c>
+      <c r="B302" t="s">
+        <v>185</v>
+      </c>
+      <c r="C302" t="s">
+        <v>240</v>
+      </c>
+      <c r="D302">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
+        <v>32101</v>
+      </c>
+      <c r="B303" t="s">
+        <v>186</v>
+      </c>
+      <c r="C303" t="s">
+        <v>240</v>
+      </c>
+      <c r="D303">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
+        <v>32102</v>
+      </c>
+      <c r="B304" t="s">
+        <v>187</v>
+      </c>
+      <c r="C304" t="s">
+        <v>240</v>
+      </c>
+      <c r="D304">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1">
+        <v>32105</v>
+      </c>
+      <c r="B305" t="s">
+        <v>191</v>
+      </c>
+      <c r="C305" t="s">
+        <v>240</v>
+      </c>
+      <c r="D305">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1">
+        <v>32109</v>
+      </c>
+      <c r="B306" t="s">
+        <v>195</v>
+      </c>
+      <c r="C306" t="s">
+        <v>240</v>
+      </c>
+      <c r="D306">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1">
+        <v>32110</v>
+      </c>
+      <c r="B307" t="s">
+        <v>201</v>
+      </c>
+      <c r="C307" t="s">
+        <v>240</v>
+      </c>
+      <c r="D307">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1">
+        <v>32280</v>
+      </c>
+      <c r="B308" t="s">
+        <v>192</v>
+      </c>
+      <c r="C308" t="s">
+        <v>240</v>
+      </c>
+      <c r="D308">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>32303</v>
+      </c>
+      <c r="B309" t="s">
+        <v>194</v>
+      </c>
+      <c r="C309" t="s">
+        <v>240</v>
+      </c>
+      <c r="D309">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1">
+        <v>32315</v>
+      </c>
+      <c r="B310" t="s">
+        <v>190</v>
+      </c>
+      <c r="C310" t="s">
+        <v>240</v>
+      </c>
+      <c r="D310">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1">
+        <v>32405</v>
+      </c>
+      <c r="B311" t="s">
+        <v>196</v>
+      </c>
+      <c r="C311" t="s">
+        <v>240</v>
+      </c>
+      <c r="D311">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1">
+        <v>32406</v>
+      </c>
+      <c r="B312" t="s">
+        <v>197</v>
+      </c>
+      <c r="C312" t="s">
+        <v>240</v>
+      </c>
+      <c r="D312">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1">
+        <v>32407</v>
+      </c>
+      <c r="B313" t="s">
+        <v>198</v>
+      </c>
+      <c r="C313" t="s">
+        <v>240</v>
+      </c>
+      <c r="D313">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>32408</v>
+      </c>
+      <c r="B314" t="s">
+        <v>200</v>
+      </c>
+      <c r="C314" t="s">
+        <v>240</v>
+      </c>
+      <c r="D314">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1">
+        <v>32522</v>
+      </c>
+      <c r="B315" t="s">
+        <v>3</v>
+      </c>
+      <c r="C315" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="1">
-        <v>21281</v>
-      </c>
-      <c r="B206" t="s">
+      <c r="D315">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1">
+        <v>32523</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>239</v>
+      </c>
+      <c r="D316">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>32524</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>239</v>
+      </c>
+      <c r="D317">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1">
+        <v>32525</v>
+      </c>
+      <c r="B318" t="s">
+        <v>6</v>
+      </c>
+      <c r="C318" t="s">
+        <v>239</v>
+      </c>
+      <c r="D318">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>42685</v>
+      </c>
+      <c r="B319" t="s">
+        <v>202</v>
+      </c>
+      <c r="C319" t="s">
+        <v>240</v>
+      </c>
+      <c r="D319">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>42686</v>
+      </c>
+      <c r="B320" t="s">
+        <v>205</v>
+      </c>
+      <c r="C320" t="s">
+        <v>240</v>
+      </c>
+      <c r="D320">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>42687</v>
+      </c>
+      <c r="B321" t="s">
         <v>206</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C321" t="s">
+        <v>240</v>
+      </c>
+      <c r="D321">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>42688</v>
+      </c>
+      <c r="B322" t="s">
+        <v>237</v>
+      </c>
+      <c r="C322" t="s">
+        <v>240</v>
+      </c>
+      <c r="D322">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>42689</v>
+      </c>
+      <c r="B323" t="s">
+        <v>207</v>
+      </c>
+      <c r="C323" t="s">
+        <v>240</v>
+      </c>
+      <c r="D323">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>42690</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" t="s">
+        <v>240</v>
+      </c>
+      <c r="D324">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>42691</v>
+      </c>
+      <c r="B325" t="s">
+        <v>203</v>
+      </c>
+      <c r="C325" t="s">
+        <v>240</v>
+      </c>
+      <c r="D325">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>42692</v>
+      </c>
+      <c r="B326" t="s">
+        <v>204</v>
+      </c>
+      <c r="C326" t="s">
+        <v>240</v>
+      </c>
+      <c r="D326">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>42694</v>
+      </c>
+      <c r="B327" t="s">
+        <v>211</v>
+      </c>
+      <c r="C327" t="s">
+        <v>240</v>
+      </c>
+      <c r="D327">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>42695</v>
+      </c>
+      <c r="B328" t="s">
+        <v>9</v>
+      </c>
+      <c r="C328" t="s">
+        <v>240</v>
+      </c>
+      <c r="D328">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>42696</v>
+      </c>
+      <c r="B329" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" t="s">
+        <v>240</v>
+      </c>
+      <c r="D329">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>42702</v>
+      </c>
+      <c r="B330" t="s">
+        <v>77</v>
+      </c>
+      <c r="C330" t="s">
+        <v>240</v>
+      </c>
+      <c r="D330">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>42706</v>
+      </c>
+      <c r="B331" t="s">
+        <v>78</v>
+      </c>
+      <c r="C331" t="s">
+        <v>240</v>
+      </c>
+      <c r="D331">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>42709</v>
+      </c>
+      <c r="B332" t="s">
+        <v>79</v>
+      </c>
+      <c r="C332" t="s">
+        <v>240</v>
+      </c>
+      <c r="D332">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>42711</v>
+      </c>
+      <c r="B333" t="s">
+        <v>81</v>
+      </c>
+      <c r="C333" t="s">
+        <v>240</v>
+      </c>
+      <c r="D333">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>42712</v>
+      </c>
+      <c r="B334" t="s">
+        <v>80</v>
+      </c>
+      <c r="C334" t="s">
+        <v>240</v>
+      </c>
+      <c r="D334">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>42910</v>
+      </c>
+      <c r="B335" t="s">
+        <v>184</v>
+      </c>
+      <c r="C335" t="s">
+        <v>240</v>
+      </c>
+      <c r="D335">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>42911</v>
+      </c>
+      <c r="B336" t="s">
+        <v>175</v>
+      </c>
+      <c r="C336" t="s">
+        <v>240</v>
+      </c>
+      <c r="D336">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1">
+        <v>42912</v>
+      </c>
+      <c r="B337" t="s">
+        <v>176</v>
+      </c>
+      <c r="C337" t="s">
+        <v>240</v>
+      </c>
+      <c r="D337">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1">
+        <v>42913</v>
+      </c>
+      <c r="B338" t="s">
+        <v>177</v>
+      </c>
+      <c r="C338" t="s">
+        <v>240</v>
+      </c>
+      <c r="D338">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1">
+        <v>42914</v>
+      </c>
+      <c r="B339" t="s">
+        <v>179</v>
+      </c>
+      <c r="C339" t="s">
+        <v>240</v>
+      </c>
+      <c r="D339">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1">
+        <v>42915</v>
+      </c>
+      <c r="B340" t="s">
+        <v>180</v>
+      </c>
+      <c r="C340" t="s">
+        <v>240</v>
+      </c>
+      <c r="D340">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B341" t="s">
+        <v>188</v>
+      </c>
+      <c r="C341" t="s">
+        <v>240</v>
+      </c>
+      <c r="D341">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B342" t="s">
+        <v>181</v>
+      </c>
+      <c r="C342" t="s">
+        <v>240</v>
+      </c>
+      <c r="D342">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1">
+        <v>42918</v>
+      </c>
+      <c r="B343" t="s">
+        <v>182</v>
+      </c>
+      <c r="C343" t="s">
+        <v>240</v>
+      </c>
+      <c r="D343">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1">
+        <v>42919</v>
+      </c>
+      <c r="B344" t="s">
+        <v>183</v>
+      </c>
+      <c r="C344" t="s">
+        <v>240</v>
+      </c>
+      <c r="D344">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1">
+        <v>42920</v>
+      </c>
+      <c r="B345" t="s">
+        <v>189</v>
+      </c>
+      <c r="C345" t="s">
+        <v>240</v>
+      </c>
+      <c r="D345">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1">
+        <v>42924</v>
+      </c>
+      <c r="B346" t="s">
+        <v>195</v>
+      </c>
+      <c r="C346" t="s">
+        <v>240</v>
+      </c>
+      <c r="D346">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1">
+        <v>42927</v>
+      </c>
+      <c r="B347" t="s">
+        <v>187</v>
+      </c>
+      <c r="C347" t="s">
+        <v>240</v>
+      </c>
+      <c r="D347">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1">
+        <v>42943</v>
+      </c>
+      <c r="B348" t="s">
+        <v>185</v>
+      </c>
+      <c r="C348" t="s">
+        <v>240</v>
+      </c>
+      <c r="D348">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1">
+        <v>42948</v>
+      </c>
+      <c r="B349" t="s">
+        <v>191</v>
+      </c>
+      <c r="C349" t="s">
+        <v>240</v>
+      </c>
+      <c r="D349">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1">
+        <v>42968</v>
+      </c>
+      <c r="B350" t="s">
+        <v>186</v>
+      </c>
+      <c r="C350" t="s">
+        <v>240</v>
+      </c>
+      <c r="D350">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B351" t="s">
+        <v>178</v>
+      </c>
+      <c r="C351" t="s">
+        <v>240</v>
+      </c>
+      <c r="D351">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1">
+        <v>43158</v>
+      </c>
+      <c r="B352" t="s">
+        <v>194</v>
+      </c>
+      <c r="C352" t="s">
+        <v>240</v>
+      </c>
+      <c r="D352">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1">
+        <v>43169</v>
+      </c>
+      <c r="B353" t="s">
+        <v>201</v>
+      </c>
+      <c r="C353" t="s">
+        <v>240</v>
+      </c>
+      <c r="D353">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1">
+        <v>43180</v>
+      </c>
+      <c r="B354" t="s">
+        <v>190</v>
+      </c>
+      <c r="C354" t="s">
+        <v>240</v>
+      </c>
+      <c r="D354">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1">
+        <v>43241</v>
+      </c>
+      <c r="B355" t="s">
+        <v>197</v>
+      </c>
+      <c r="C355" t="s">
+        <v>240</v>
+      </c>
+      <c r="D355">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1">
+        <v>43242</v>
+      </c>
+      <c r="B356" t="s">
+        <v>198</v>
+      </c>
+      <c r="C356" t="s">
+        <v>240</v>
+      </c>
+      <c r="D356">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B357" t="s">
+        <v>200</v>
+      </c>
+      <c r="C357" t="s">
+        <v>240</v>
+      </c>
+      <c r="D357">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1">
+        <v>43461</v>
+      </c>
+      <c r="B358" t="s">
+        <v>3</v>
+      </c>
+      <c r="C358" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="1">
-        <v>21284</v>
-      </c>
-      <c r="B207" t="s">
-        <v>207</v>
-      </c>
-      <c r="C207" t="s">
+      <c r="D358">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1">
+        <v>43502</v>
+      </c>
+      <c r="B359" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="1">
-        <v>21302</v>
-      </c>
-      <c r="B208" t="s">
-        <v>208</v>
-      </c>
-      <c r="C208" t="s">
+      <c r="D359">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1">
+        <v>43508</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1">
-        <v>21304</v>
-      </c>
-      <c r="B209" t="s">
-        <v>209</v>
-      </c>
-      <c r="C209" t="s">
+      <c r="D360">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B361" t="s">
+        <v>6</v>
+      </c>
+      <c r="C361" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>21305</v>
-      </c>
-      <c r="B210" t="s">
-        <v>210</v>
-      </c>
-      <c r="C210" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="1">
-        <v>21306</v>
-      </c>
-      <c r="B211" t="s">
+      <c r="D361">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1">
+        <v>52851</v>
+      </c>
+      <c r="B362" t="s">
+        <v>8</v>
+      </c>
+      <c r="C362" t="s">
+        <v>240</v>
+      </c>
+      <c r="D362">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1">
+        <v>52852</v>
+      </c>
+      <c r="B363" t="s">
+        <v>80</v>
+      </c>
+      <c r="C363" t="s">
+        <v>240</v>
+      </c>
+      <c r="D363">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>52853</v>
+      </c>
+      <c r="B364" t="s">
+        <v>234</v>
+      </c>
+      <c r="C364" t="s">
+        <v>240</v>
+      </c>
+      <c r="D364">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1">
+        <v>52854</v>
+      </c>
+      <c r="B365" t="s">
+        <v>81</v>
+      </c>
+      <c r="C365" t="s">
+        <v>240</v>
+      </c>
+      <c r="D365">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1">
+        <v>52855</v>
+      </c>
+      <c r="B366" t="s">
+        <v>78</v>
+      </c>
+      <c r="C366" t="s">
+        <v>240</v>
+      </c>
+      <c r="D366">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1">
+        <v>52887</v>
+      </c>
+      <c r="B367" t="s">
         <v>211</v>
       </c>
-      <c r="C211" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>21307</v>
-      </c>
-      <c r="B212" t="s">
-        <v>212</v>
-      </c>
-      <c r="C212" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="1">
-        <v>21308</v>
-      </c>
-      <c r="B213" t="s">
-        <v>213</v>
-      </c>
-      <c r="C213" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>21309</v>
-      </c>
-      <c r="B214" t="s">
-        <v>214</v>
-      </c>
-      <c r="C214" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="1">
-        <v>21310</v>
-      </c>
-      <c r="B215" t="s">
-        <v>215</v>
-      </c>
-      <c r="C215" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="1">
-        <v>21311</v>
-      </c>
-      <c r="B216" t="s">
-        <v>216</v>
-      </c>
-      <c r="C216" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="1">
-        <v>21312</v>
-      </c>
-      <c r="B217" t="s">
-        <v>217</v>
-      </c>
-      <c r="C217" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="1">
-        <v>21313</v>
-      </c>
-      <c r="B218" t="s">
-        <v>218</v>
-      </c>
-      <c r="C218" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="1">
-        <v>21314</v>
-      </c>
-      <c r="B219" t="s">
-        <v>219</v>
-      </c>
-      <c r="C219" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="1">
-        <v>21315</v>
-      </c>
-      <c r="B220" t="s">
-        <v>220</v>
-      </c>
-      <c r="C220" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="1">
-        <v>21316</v>
-      </c>
-      <c r="B221" t="s">
-        <v>221</v>
-      </c>
-      <c r="C221" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="1">
-        <v>21317</v>
-      </c>
-      <c r="B222" t="s">
-        <v>222</v>
-      </c>
-      <c r="C222" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="1">
-        <v>21318</v>
-      </c>
-      <c r="B223" t="s">
-        <v>223</v>
-      </c>
-      <c r="C223" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="1">
-        <v>21320</v>
-      </c>
-      <c r="B224" t="s">
-        <v>224</v>
-      </c>
-      <c r="C224" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="1">
-        <v>21321</v>
-      </c>
-      <c r="B225" t="s">
-        <v>225</v>
-      </c>
-      <c r="C225" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="1">
-        <v>21322</v>
-      </c>
-      <c r="B226" t="s">
-        <v>226</v>
-      </c>
-      <c r="C226" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="1">
-        <v>21323</v>
-      </c>
-      <c r="B227" t="s">
-        <v>227</v>
-      </c>
-      <c r="C227" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="1">
-        <v>21324</v>
-      </c>
-      <c r="B228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C228" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="1">
-        <v>21325</v>
-      </c>
-      <c r="B229" t="s">
-        <v>229</v>
-      </c>
-      <c r="C229" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="1">
-        <v>21326</v>
-      </c>
-      <c r="B230" t="s">
-        <v>230</v>
-      </c>
-      <c r="C230" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="1">
-        <v>21328</v>
-      </c>
-      <c r="B231" t="s">
-        <v>231</v>
-      </c>
-      <c r="C231" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="1">
-        <v>21329</v>
-      </c>
-      <c r="B232" t="s">
-        <v>232</v>
-      </c>
-      <c r="C232" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="1">
-        <v>21376</v>
-      </c>
-      <c r="B233" t="s">
-        <v>233</v>
-      </c>
-      <c r="C233" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="1">
-        <v>22182</v>
-      </c>
-      <c r="B234" t="s">
-        <v>234</v>
-      </c>
-      <c r="C234" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="1">
-        <v>32010</v>
-      </c>
-      <c r="B235" t="s">
-        <v>235</v>
-      </c>
-      <c r="C235" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="1">
-        <v>42688</v>
-      </c>
-      <c r="B236" t="s">
-        <v>236</v>
-      </c>
-      <c r="C236" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="1">
+      <c r="C367" t="s">
+        <v>240</v>
+      </c>
+      <c r="D367">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1">
+        <v>52920</v>
+      </c>
+      <c r="B368" t="s">
+        <v>206</v>
+      </c>
+      <c r="C368" t="s">
+        <v>240</v>
+      </c>
+      <c r="D368">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
         <v>52990</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B369" t="s">
+        <v>238</v>
+      </c>
+      <c r="C369" t="s">
+        <v>240</v>
+      </c>
+      <c r="D369">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>52992</v>
+      </c>
+      <c r="B370" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370" t="s">
+        <v>240</v>
+      </c>
+      <c r="D370">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>52993</v>
+      </c>
+      <c r="B371" t="s">
+        <v>9</v>
+      </c>
+      <c r="C371" t="s">
+        <v>240</v>
+      </c>
+      <c r="D371">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>52994</v>
+      </c>
+      <c r="B372" t="s">
+        <v>175</v>
+      </c>
+      <c r="C372" t="s">
+        <v>240</v>
+      </c>
+      <c r="D372">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
+        <v>52995</v>
+      </c>
+      <c r="B373" t="s">
+        <v>176</v>
+      </c>
+      <c r="C373" t="s">
+        <v>240</v>
+      </c>
+      <c r="D373">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>52996</v>
+      </c>
+      <c r="B374" t="s">
+        <v>177</v>
+      </c>
+      <c r="C374" t="s">
+        <v>240</v>
+      </c>
+      <c r="D374">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>52997</v>
+      </c>
+      <c r="B375" t="s">
+        <v>179</v>
+      </c>
+      <c r="C375" t="s">
+        <v>240</v>
+      </c>
+      <c r="D375">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>52998</v>
+      </c>
+      <c r="B376" t="s">
+        <v>180</v>
+      </c>
+      <c r="C376" t="s">
+        <v>240</v>
+      </c>
+      <c r="D376">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>52999</v>
+      </c>
+      <c r="B377" t="s">
+        <v>188</v>
+      </c>
+      <c r="C377" t="s">
+        <v>240</v>
+      </c>
+      <c r="D377">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1">
+        <v>53000</v>
+      </c>
+      <c r="B378" t="s">
+        <v>181</v>
+      </c>
+      <c r="C378" t="s">
+        <v>240</v>
+      </c>
+      <c r="D378">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1">
+        <v>53001</v>
+      </c>
+      <c r="B379" t="s">
+        <v>182</v>
+      </c>
+      <c r="C379" t="s">
+        <v>240</v>
+      </c>
+      <c r="D379">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>53002</v>
+      </c>
+      <c r="B380" t="s">
+        <v>183</v>
+      </c>
+      <c r="C380" t="s">
+        <v>240</v>
+      </c>
+      <c r="D380">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1">
+        <v>53003</v>
+      </c>
+      <c r="B381" t="s">
+        <v>189</v>
+      </c>
+      <c r="C381" t="s">
+        <v>240</v>
+      </c>
+      <c r="D381">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1">
+        <v>53004</v>
+      </c>
+      <c r="B382" t="s">
+        <v>184</v>
+      </c>
+      <c r="C382" t="s">
+        <v>240</v>
+      </c>
+      <c r="D382">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1">
+        <v>53022</v>
+      </c>
+      <c r="B383" t="s">
+        <v>185</v>
+      </c>
+      <c r="C383" t="s">
+        <v>240</v>
+      </c>
+      <c r="D383">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1">
+        <v>53034</v>
+      </c>
+      <c r="B384" t="s">
+        <v>186</v>
+      </c>
+      <c r="C384" t="s">
+        <v>240</v>
+      </c>
+      <c r="D384">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1">
+        <v>53040</v>
+      </c>
+      <c r="B385" t="s">
+        <v>187</v>
+      </c>
+      <c r="C385" t="s">
+        <v>240</v>
+      </c>
+      <c r="D385">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1">
+        <v>53052</v>
+      </c>
+      <c r="B386" t="s">
+        <v>191</v>
+      </c>
+      <c r="C386" t="s">
+        <v>240</v>
+      </c>
+      <c r="D386">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1">
+        <v>53131</v>
+      </c>
+      <c r="B387" t="s">
+        <v>178</v>
+      </c>
+      <c r="C387" t="s">
+        <v>240</v>
+      </c>
+      <c r="D387">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1">
+        <v>53191</v>
+      </c>
+      <c r="B388" t="s">
+        <v>195</v>
+      </c>
+      <c r="C388" t="s">
+        <v>240</v>
+      </c>
+      <c r="D388">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1">
+        <v>53207</v>
+      </c>
+      <c r="B389" t="s">
+        <v>201</v>
+      </c>
+      <c r="C389" t="s">
+        <v>240</v>
+      </c>
+      <c r="D389">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1">
+        <v>53208</v>
+      </c>
+      <c r="B390" t="s">
+        <v>196</v>
+      </c>
+      <c r="C390" t="s">
+        <v>240</v>
+      </c>
+      <c r="D390">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1">
+        <v>53229</v>
+      </c>
+      <c r="B391" t="s">
+        <v>198</v>
+      </c>
+      <c r="C391" t="s">
+        <v>240</v>
+      </c>
+      <c r="D391">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1">
+        <v>53381</v>
+      </c>
+      <c r="B392" t="s">
+        <v>194</v>
+      </c>
+      <c r="C392" t="s">
+        <v>240</v>
+      </c>
+      <c r="D392">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1">
+        <v>53392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>190</v>
+      </c>
+      <c r="C393" t="s">
+        <v>240</v>
+      </c>
+      <c r="D393">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1">
+        <v>53460</v>
+      </c>
+      <c r="B394" t="s">
+        <v>197</v>
+      </c>
+      <c r="C394" t="s">
+        <v>240</v>
+      </c>
+      <c r="D394">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1">
+        <v>53462</v>
+      </c>
+      <c r="B395" t="s">
+        <v>200</v>
+      </c>
+      <c r="C395" t="s">
+        <v>240</v>
+      </c>
+      <c r="D395">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1">
+        <v>53695</v>
+      </c>
+      <c r="B396" t="s">
+        <v>202</v>
+      </c>
+      <c r="C396" t="s">
+        <v>240</v>
+      </c>
+      <c r="D396">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1">
+        <v>53696</v>
+      </c>
+      <c r="B397" t="s">
+        <v>203</v>
+      </c>
+      <c r="C397" t="s">
+        <v>240</v>
+      </c>
+      <c r="D397">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1">
+        <v>53697</v>
+      </c>
+      <c r="B398" t="s">
+        <v>204</v>
+      </c>
+      <c r="C398" t="s">
+        <v>240</v>
+      </c>
+      <c r="D398">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1">
+        <v>53699</v>
+      </c>
+      <c r="B399" t="s">
+        <v>79</v>
+      </c>
+      <c r="C399" t="s">
+        <v>240</v>
+      </c>
+      <c r="D399">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1">
+        <v>53700</v>
+      </c>
+      <c r="B400" t="s">
         <v>237</v>
       </c>
-      <c r="C237" t="s">
-        <v>239</v>
+      <c r="C400" t="s">
+        <v>240</v>
+      </c>
+      <c r="D400">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1">
+        <v>53701</v>
+      </c>
+      <c r="B401" t="s">
+        <v>7</v>
+      </c>
+      <c r="C401" t="s">
+        <v>240</v>
+      </c>
+      <c r="D401">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1">
+        <v>53702</v>
+      </c>
+      <c r="B402" t="s">
+        <v>205</v>
+      </c>
+      <c r="C402" t="s">
+        <v>240</v>
+      </c>
+      <c r="D402">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1">
+        <v>53707</v>
+      </c>
+      <c r="B403" t="s">
+        <v>77</v>
+      </c>
+      <c r="C403" t="s">
+        <v>240</v>
+      </c>
+      <c r="D403">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
